--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Reservas.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Reservas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA6472B-637E-4BD2-8A4C-9467E0C3FA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECA4E19-C992-4109-AB51-261E325E07F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="671" firstSheet="1" activeTab="6" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="671" firstSheet="1" activeTab="6" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -1362,240 +1362,6 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1615,6 +1381,18 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1630,8 +1408,230 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2173,7 +2173,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="49" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="34" t="s">
@@ -2187,7 +2187,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="33" t="s">
@@ -2201,7 +2201,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="49" t="s">
         <v>124</v>
       </c>
       <c r="B4" s="34" t="s">
@@ -2215,7 +2215,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="49" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="34" t="s">
@@ -2229,7 +2229,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="49" t="s">
         <v>127</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -2246,7 +2246,7 @@
       <c r="A7" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="50" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -2257,7 +2257,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="49" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="33" t="s">
@@ -2319,70 +2319,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50" t="str">
+      <c r="B2" s="58" t="str">
         <f>+'Listado Objetos de Dominio'!A2</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="59" t="str">
         <f>+'Listado Objetos de Dominio'!B2</f>
         <v>Objeto de dominio que contiene la informacion basica de los clientes del spa</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2795,70 +2795,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50" t="str">
+      <c r="B2" s="58" t="str">
         <f>'[1]Listado Objetos de Dominio'!A2</f>
         <v>Sucursal</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="59" t="str">
         <f>'[1]Listado Objetos de Dominio'!B2</f>
         <v>Objeto de dominio que contiene la informacion de la ubicación de las sucursales del Spa</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3206,70 +3206,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50" t="str">
+      <c r="B2" s="58" t="str">
         <f>'[2]Listado Objetos de Dominio'!A2</f>
         <v>Servicio</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="59" t="str">
         <f>'[2]Listado Objetos de Dominio'!B2</f>
         <v>Objeto de dominio que contiene información detallada sobre los servicios específicos ofrecidos por el spa</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3434,7 +3434,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="129" t="str">
+      <c r="A8" s="51" t="str">
         <f>'[2]Objeto Dominio-TipoServicio'!B2</f>
         <v>TipoServicio</v>
       </c>
@@ -3457,24 +3457,24 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="130" t="s">
+      <c r="A9" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="133" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="55" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3514,70 +3514,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="134" t="str">
+      <c r="B2" s="60" t="str">
         <f>'Listado Objetos de Dominio'!A8</f>
         <v>Notificaciones</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="62"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="59" t="str">
         <f>'Listado Objetos de Dominio'!B8</f>
         <v xml:space="preserve">Objeto de dominio que hace el llamado a consumo de un tercero para notificar </v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3820,9 +3820,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="74" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="74" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3851,70 +3851,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50" t="str">
+      <c r="B2" s="58" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>Sucursales</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="59" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v>Objeto de dominio que contiene la informacion de la ubicación de las sucursales del Spa</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -4254,11 +4254,11 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="134"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -4272,73 +4272,73 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="137" t="s">
+      <c r="A15" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="139" t="str">
+      <c r="C15" s="56" t="str">
         <f>+A5</f>
         <v>Identificador</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="137"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="139" t="str">
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="56" t="str">
         <f>A7</f>
         <v>Cliente</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="137"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="139" t="str">
+      <c r="A17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="56" t="str">
         <f>A6</f>
         <v>Agenda</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58" t="s">
+      <c r="B19" s="126"/>
+      <c r="C19" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58" t="s">
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58" t="s">
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58" t="s">
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58" t="s">
+      <c r="P19" s="126"/>
+      <c r="Q19" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="62"/>
+      <c r="R19" s="127"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="A20" s="136"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="19" t="s">
         <v>28</v>
       </c>
@@ -4351,12 +4351,12 @@
       <c r="J20" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="128"/>
       <c r="O20" s="19" t="s">
         <v>30</v>
       </c>
@@ -4371,30 +4371,30 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="66" t="s">
+      <c r="B21" s="109"/>
+      <c r="C21" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="75" t="s">
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="H21" s="63" t="s">
+      <c r="H21" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="I21" s="75" t="s">
+      <c r="I21" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="J21" s="63"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="68"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="116"/>
       <c r="O21" s="41" t="s">
         <v>186</v>
       </c>
@@ -4404,25 +4404,25 @@
       <c r="Q21" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="R21" s="52" t="s">
+      <c r="R21" s="129" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="71"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="119"/>
       <c r="O22" s="41" t="s">
         <v>187</v>
       </c>
@@ -4432,23 +4432,23 @@
       <c r="Q22" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="R22" s="53"/>
+      <c r="R22" s="130"/>
     </row>
     <row r="23" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="100"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="74"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="122"/>
       <c r="O23" s="41" t="s">
         <v>188</v>
       </c>
@@ -4458,33 +4458,33 @@
       <c r="Q23" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="R23" s="54"/>
+      <c r="R23" s="131"/>
     </row>
     <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="102" t="s">
         <v>175</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="84" t="s">
+      <c r="B24" s="103"/>
+      <c r="C24" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="93" t="s">
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="102" t="s">
+      <c r="H24" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="I24" s="93" t="s">
+      <c r="I24" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="J24" s="93"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="86"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="92"/>
       <c r="O24" s="32" t="s">
         <v>189</v>
       </c>
@@ -4494,25 +4494,25 @@
       <c r="Q24" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="R24" s="105" t="s">
+      <c r="R24" s="99" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="89"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="95"/>
       <c r="O25" s="32" t="s">
         <v>187</v>
       </c>
@@ -4522,23 +4522,23 @@
       <c r="Q25" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="R25" s="106"/>
+      <c r="R25" s="100"/>
     </row>
     <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="92"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="98"/>
       <c r="O26" s="32" t="s">
         <v>190</v>
       </c>
@@ -4548,81 +4548,81 @@
       <c r="Q26" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="R26" s="107"/>
+      <c r="R26" s="101"/>
     </row>
     <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="122"/>
-      <c r="C27" s="110" t="s">
+      <c r="B27" s="79"/>
+      <c r="C27" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="108" t="s">
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="125" t="s">
+      <c r="H27" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="I27" s="108" t="s">
+      <c r="I27" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="J27" s="108"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="112"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="69"/>
       <c r="O27" s="42" t="s">
         <v>191</v>
       </c>
       <c r="P27" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="Q27" s="108" t="s">
+      <c r="Q27" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="R27" s="116" t="s">
+      <c r="R27" s="73" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="123"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="115"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="72"/>
       <c r="O28" s="42" t="s">
         <v>192</v>
       </c>
       <c r="P28" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="117"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="74"/>
     </row>
     <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="118" t="s">
+      <c r="A29" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="119"/>
-      <c r="C29" s="120" t="s">
+      <c r="B29" s="76"/>
+      <c r="C29" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="31" t="s">
         <v>124</v>
       </c>
@@ -4633,10 +4633,10 @@
         <v>185</v>
       </c>
       <c r="J29" s="31"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="120"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
       <c r="O29" s="44" t="s">
         <v>193</v>
       </c>
@@ -4652,11 +4652,27 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:N28"/>
-    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="C24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="C21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:N23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:F29"/>
@@ -4666,33 +4682,17 @@
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:N28"/>
+    <mergeCell ref="Q27:Q28"/>
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J24:J26"/>
     <mergeCell ref="K24:N26"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="A24:B26"/>
-    <mergeCell ref="C24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="C21:F23"/>
-    <mergeCell ref="G21:G23"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="K20:N20"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:F20"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="K21:N23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -4746,70 +4746,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50" t="str">
+      <c r="B2" s="58" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>Reserva</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="59" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion de las reservas de las citas del Spa que solo se puede reservar un solo servicio por reserva</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -5047,11 +5047,11 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="134"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -5078,44 +5078,44 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58" t="s">
+      <c r="B14" s="126"/>
+      <c r="C14" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58" t="s">
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58" t="s">
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58" t="s">
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58" t="s">
+      <c r="P14" s="126"/>
+      <c r="Q14" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="62"/>
+      <c r="R14" s="127"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
       <c r="G15" s="19" t="s">
         <v>28</v>
       </c>
@@ -5128,12 +5128,12 @@
       <c r="J15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="61" t="s">
+      <c r="K15" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
       <c r="O15" s="19" t="s">
         <v>30</v>
       </c>
@@ -5148,30 +5148,30 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="66" t="s">
+      <c r="B16" s="109"/>
+      <c r="C16" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="75" t="s">
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="75" t="s">
+      <c r="I16" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="63"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="68"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="116"/>
       <c r="O16" s="41" t="s">
         <v>76</v>
       </c>
@@ -5181,25 +5181,25 @@
       <c r="Q16" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="R16" s="52" t="s">
+      <c r="R16" s="129" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="71"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="119"/>
       <c r="O17" s="41" t="s">
         <v>79</v>
       </c>
@@ -5207,23 +5207,23 @@
         <v>102</v>
       </c>
       <c r="Q17" s="41"/>
-      <c r="R17" s="53"/>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="100"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="74"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="122"/>
       <c r="O18" s="41" t="s">
         <v>80</v>
       </c>
@@ -5233,33 +5233,33 @@
       <c r="Q18" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="R18" s="54"/>
+      <c r="R18" s="131"/>
     </row>
     <row r="19" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="84" t="s">
+      <c r="B19" s="103"/>
+      <c r="C19" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="93" t="s">
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="102" t="s">
+      <c r="H19" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="93" t="s">
+      <c r="I19" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="J19" s="93"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="86"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="92"/>
       <c r="O19" s="32" t="s">
         <v>84</v>
       </c>
@@ -5269,25 +5269,25 @@
       <c r="Q19" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="R19" s="105" t="s">
+      <c r="R19" s="99" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="89"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="95"/>
       <c r="O20" s="32" t="s">
         <v>79</v>
       </c>
@@ -5297,23 +5297,23 @@
       <c r="Q20" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="R20" s="106"/>
+      <c r="R20" s="100"/>
     </row>
     <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="92"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="98"/>
       <c r="O21" s="32" t="s">
         <v>87</v>
       </c>
@@ -5323,81 +5323,81 @@
       <c r="Q21" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="R21" s="107"/>
+      <c r="R21" s="101"/>
     </row>
     <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="122"/>
-      <c r="C22" s="110" t="s">
+      <c r="B22" s="79"/>
+      <c r="C22" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="108" t="s">
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="125" t="s">
+      <c r="H22" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="108" t="s">
+      <c r="I22" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="108"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="112"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="69"/>
       <c r="O22" s="42" t="s">
         <v>92</v>
       </c>
       <c r="P22" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="Q22" s="108" t="s">
+      <c r="Q22" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="R22" s="116" t="s">
+      <c r="R22" s="73" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="123"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="115"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="72"/>
       <c r="O23" s="42" t="s">
         <v>94</v>
       </c>
       <c r="P23" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="117"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="74"/>
     </row>
     <row r="24" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="118" t="s">
+      <c r="A24" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="119"/>
-      <c r="C24" s="120" t="s">
+      <c r="B24" s="76"/>
+      <c r="C24" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
       <c r="G24" s="31" t="s">
         <v>40</v>
       </c>
@@ -5408,10 +5408,10 @@
         <v>97</v>
       </c>
       <c r="J24" s="31"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
       <c r="O24" s="44" t="s">
         <v>98</v>
       </c>
@@ -5427,6 +5427,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="A16:B18"/>
+    <mergeCell ref="C16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:N18"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:P14"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="K24:N24"/>
@@ -5443,29 +5466,6 @@
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="C19:F21"/>
     <mergeCell ref="G19:G21"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:N18"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:N21"/>
-    <mergeCell ref="A16:B18"/>
-    <mergeCell ref="C16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F71E723C-45DC-45F7-B5B1-27B509D7A5BA}"/>
@@ -5482,9 +5482,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5632,19 +5635,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5668,9 +5667,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
